--- a/backend/monthly_summary.xlsx
+++ b/backend/monthly_summary.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hammad\OneDrive\Desktop\Portfolio Projects\geo_viz\geo_viz\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2151E959-C252-4B7D-A38A-B93036429A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE84C39B-8DFB-4EFA-8803-9D1351B49C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="8120" windowWidth="19380" windowHeight="12850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Month</t>
   </si>
@@ -47,42 +47,6 @@
     <t>Revenue</t>
   </si>
   <si>
-    <t>2011-11</t>
-  </si>
-  <si>
-    <t>2011-09</t>
-  </si>
-  <si>
-    <t>2011-10</t>
-  </si>
-  <si>
-    <t>2011-03</t>
-  </si>
-  <si>
-    <t>2011-07</t>
-  </si>
-  <si>
-    <t>2011-05</t>
-  </si>
-  <si>
-    <t>2011-06</t>
-  </si>
-  <si>
-    <t>2011-08</t>
-  </si>
-  <si>
-    <t>2011-01</t>
-  </si>
-  <si>
-    <t>2011-02</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2011-04</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
@@ -93,6 +57,45 @@
   </si>
   <si>
     <t>Order Count Growth %</t>
+  </si>
+  <si>
+    <t>2023-01</t>
+  </si>
+  <si>
+    <t>2023-02</t>
+  </si>
+  <si>
+    <t>2023-03</t>
+  </si>
+  <si>
+    <t>2023-04</t>
+  </si>
+  <si>
+    <t>2023-05</t>
+  </si>
+  <si>
+    <t>2023-06</t>
+  </si>
+  <si>
+    <t>2023-07</t>
+  </si>
+  <si>
+    <t>2023-08</t>
+  </si>
+  <si>
+    <t>2023-09</t>
+  </si>
+  <si>
+    <t>2023-10</t>
+  </si>
+  <si>
+    <t>2023-11</t>
+  </si>
+  <si>
+    <t>2022-12</t>
+  </si>
+  <si>
+    <t>2023-12</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -159,14 +162,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,19 +178,33 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -216,20 +234,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -244,19 +248,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2ABD6733-CE70-4143-A9C2-69540AA028B8}" name="SalesTrendsTable" displayName="SalesTrendsTable" ref="A1:E14" totalsRowCount="1" headerRowDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="A1:E13" xr:uid="{2ABD6733-CE70-4143-A9C2-69540AA028B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2ABD6733-CE70-4143-A9C2-69540AA028B8}" name="SalesTrendsTable" displayName="SalesTrendsTable" ref="A1:E15" totalsRowCount="1" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A1:E14" xr:uid="{2ABD6733-CE70-4143-A9C2-69540AA028B8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B89FAC6A-B0A7-464A-A2E6-AA83EA544DCC}" name="Month" totalsRowLabel="Grand Total"/>
-    <tableColumn id="2" xr3:uid="{DB8ABBCD-DB4F-4C58-8CD9-31CF12555F18}" name="Orders" totalsRowFunction="sum" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{2DBAD220-C66F-4EAA-8CC0-758C9AA3ABD0}" name="Revenue" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{7D0B22BB-CEB7-4930-A3FC-DD6D5CB392AD}" name="Sales Growth %" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{DB8ABBCD-DB4F-4C58-8CD9-31CF12555F18}" name="Orders" totalsRowFunction="custom" totalsRowDxfId="4">
+      <totalsRowFormula>SUM(SalesTrendsTable[Orders])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2DBAD220-C66F-4EAA-8CC0-758C9AA3ABD0}" name="Revenue" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="3">
+      <totalsRowFormula>SUM(SalesTrendsTable[Revenue])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{7D0B22BB-CEB7-4930-A3FC-DD6D5CB392AD}" name="Sales Growth %" dataDxfId="1">
       <calculatedColumnFormula>(SalesTrendsTable[[#This Row],[Revenue]]-C1)/C1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{87D48353-EAA6-4905-886D-092C704EB332}" name="Order Count Growth %" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{87D48353-EAA6-4905-886D-092C704EB332}" name="Order Count Growth %" dataDxfId="0">
       <calculatedColumnFormula>(SalesTrendsTable[[#This Row],[Orders]]-B1)/B1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -549,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,35 +574,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>19749</v>
+        <v>18749</v>
       </c>
       <c r="C2" s="1">
-        <v>296822.74</v>
+        <v>196822.74</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -603,7 +611,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>22238</v>
@@ -611,39 +619,39 @@
       <c r="C3" s="1">
         <v>350311.78</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f>(SalesTrendsTable[[#This Row],[Revenue]]-C2)/C2</f>
-        <v>0.18020533062931782</v>
-      </c>
-      <c r="E3" s="4">
+        <v>0.77983387488661138</v>
+      </c>
+      <c r="E3" s="3">
         <f>(SalesTrendsTable[[#This Row],[Orders]]-B2)/B2</f>
-        <v>0.12603169780748391</v>
+        <v>0.18608992479598913</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>20112</v>
+        <v>20232</v>
       </c>
       <c r="C4" s="1">
         <v>300023.59000000003</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f>(SalesTrendsTable[[#This Row],[Revenue]]-C3)/C3</f>
         <v>-0.14355266614214343</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f>(SalesTrendsTable[[#This Row],[Orders]]-B3)/B3</f>
-        <v>-9.5602122493029948E-2</v>
+        <v>-9.0205953772821298E-2</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>74174</v>
@@ -651,19 +659,19 @@
       <c r="C5" s="1">
         <v>649541.86</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f>(SalesTrendsTable[[#This Row],[Revenue]]-C4)/C4</f>
         <v>1.1649692945811359</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f>(SalesTrendsTable[[#This Row],[Orders]]-B4)/B4</f>
-        <v>2.6880469371519489</v>
+        <v>2.6661724001581653</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>17563</v>
@@ -671,11 +679,11 @@
       <c r="C6" s="1">
         <v>293104.46100000001</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f>(SalesTrendsTable[[#This Row],[Revenue]]-C5)/C5</f>
         <v>-0.5487520065296484</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f>(SalesTrendsTable[[#This Row],[Orders]]-B5)/B5</f>
         <v>-0.76321891768004957</v>
       </c>
@@ -683,7 +691,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>40555</v>
@@ -691,11 +699,11 @@
       <c r="C7" s="1">
         <v>421237.66</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f>(SalesTrendsTable[[#This Row],[Revenue]]-C6)/C6</f>
         <v>0.43715881553914648</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f>(SalesTrendsTable[[#This Row],[Orders]]-B6)/B6</f>
         <v>1.3091157547116097</v>
       </c>
@@ -703,7 +711,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>41937</v>
@@ -711,11 +719,11 @@
       <c r="C8" s="1">
         <v>418241.69</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f>(SalesTrendsTable[[#This Row],[Revenue]]-C7)/C7</f>
         <v>-7.1123033016562958E-3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f>(SalesTrendsTable[[#This Row],[Orders]]-B7)/B7</f>
         <v>3.4077179139440264E-2</v>
       </c>
@@ -723,7 +731,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>94099</v>
@@ -731,11 +739,11 @@
       <c r="C9" s="1">
         <v>739170.41099999996</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f>(SalesTrendsTable[[#This Row],[Revenue]]-C8)/C8</f>
         <v>0.76732838613003873</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f>(SalesTrendsTable[[#This Row],[Orders]]-B8)/B8</f>
         <v>1.2438181081145527</v>
       </c>
@@ -743,7 +751,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>80229</v>
@@ -751,11 +759,11 @@
       <c r="C10" s="1">
         <v>673237.47</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f>(SalesTrendsTable[[#This Row],[Revenue]]-C9)/C9</f>
         <v>-8.9198566418265346E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f>(SalesTrendsTable[[#This Row],[Orders]]-B9)/B9</f>
         <v>-0.1473979532194816</v>
       </c>
@@ -763,7 +771,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>103143</v>
@@ -771,11 +779,11 @@
       <c r="C11" s="1">
         <v>904074.68200000003</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <f>(SalesTrendsTable[[#This Row],[Revenue]]-C10)/C10</f>
         <v>0.34287635832271796</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f>(SalesTrendsTable[[#This Row],[Orders]]-B10)/B10</f>
         <v>0.28560744867815879</v>
       </c>
@@ -783,7 +791,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>136974</v>
@@ -791,11 +799,11 @@
       <c r="C12" s="1">
         <v>1644778.01</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <f>(SalesTrendsTable[[#This Row],[Revenue]]-C11)/C11</f>
         <v>0.81929440426471312</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f>(SalesTrendsTable[[#This Row],[Orders]]-B11)/B11</f>
         <v>0.32800093074663333</v>
       </c>
@@ -803,7 +811,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>155177</v>
@@ -811,11 +819,11 @@
       <c r="C13" s="1">
         <v>1908925.01</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <f>(SalesTrendsTable[[#This Row],[Revenue]]-C12)/C12</f>
         <v>0.16059735623532564</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f>(SalesTrendsTable[[#This Row],[Orders]]-B12)/B12</f>
         <v>0.1328938338662812</v>
       </c>
@@ -823,21 +831,50 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <f>SUBTOTAL(109,SalesTrendsTable[Orders])</f>
-        <v>805950</v>
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>19749</v>
       </c>
       <c r="C14" s="1">
-        <f>SUBTOTAL(109,SalesTrendsTable[Revenue])</f>
-        <v>8599469.3640000001</v>
+        <v>296822.74</v>
+      </c>
+      <c r="D14" s="4">
+        <f>(SalesTrendsTable[[#This Row],[Revenue]]-C13)/C13</f>
+        <v>-0.84450790971616008</v>
+      </c>
+      <c r="E14" s="4">
+        <f>(SalesTrendsTable[[#This Row],[Orders]]-B13)/B13</f>
+        <v>-0.87273242813045748</v>
       </c>
       <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5">
+        <f>SUM(SalesTrendsTable[Orders])</f>
+        <v>824819</v>
+      </c>
+      <c r="C15" s="1">
+        <f>SUM(SalesTrendsTable[Revenue])</f>
+        <v>8796292.1040000003</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:E13">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -845,6 +882,8 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:E14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
